--- a/pitomets.com.ua/Phone_number.xlsx
+++ b/pitomets.com.ua/Phone_number.xlsx
@@ -87,9 +87,6 @@
     <t>The phone number is not highlighted in a different color.</t>
   </si>
   <si>
-    <t>The phone number is highlighted in a different color.(blue)</t>
-  </si>
-  <si>
     <t>The phone number is not highlighted.</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Trivial</t>
+  </si>
+  <si>
+    <t>The phone number is highlighted in a different color. (blue)</t>
   </si>
 </sst>
 </file>
@@ -317,12 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -330,6 +324,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,7 +615,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,14 +630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -681,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="10"/>
@@ -752,10 +752,10 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="10"/>
@@ -767,8 +767,8 @@
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
